--- a/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials-DONGLE02.xlsx
+++ b/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials-DONGLE02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\#DONGLE02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E05784C-F7C2-452A-ABD2-0CE1C4A4C56F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D90A22-644E-4E4C-83C8-99433019C727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{168C6361-4FA7-4968-AAEF-49FEF4FCE45D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{C2AF3CD2-5F5F-44F9-AB49-5F798C63AB68}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DONGLE02" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Designator</t>
   </si>
@@ -36,6 +36,12 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -45,24 +51,27 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Supplier P/N (Cut Tape)</t>
   </si>
   <si>
     <t>Supplier P/N (Tape &amp; Reel)</t>
   </si>
   <si>
+    <t>Datasheet Web</t>
+  </si>
+  <si>
+    <t>Supplier Web</t>
+  </si>
+  <si>
     <t>C1</t>
   </si>
   <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>0.1 µF ±10% 100V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>Murata Electronics</t>
   </si>
   <si>
@@ -72,160 +81,199 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>0.1 µF ±10% 100V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t>490-4789-1-ND</t>
   </si>
   <si>
     <t>490-4789-2-ND</t>
   </si>
   <si>
+    <t>https://search.murata.co.jp/Ceramy/image/img/A01X/G101/ENG/GCM033R71A103KA03-01A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/murata-electronics/GCM21BR72A104KA37L/1641663?s=N4IgTCBcDaIOIGECyYCMAhASgdjAQVQAYAWAaTwGZsAZEAXQF8g</t>
+  </si>
+  <si>
     <t>C2, C4, C5</t>
   </si>
   <si>
+    <t>0.33uF</t>
+  </si>
+  <si>
+    <t>0.33 µF ±5% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>KEMET</t>
   </si>
   <si>
     <t>C0805C334J3RECAUTO7210</t>
   </si>
   <si>
-    <t>0.33uF</t>
-  </si>
-  <si>
-    <t>0.33 µF ±5% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t>399-C0805C334J3RECAUTO7210CT-ND</t>
   </si>
   <si>
     <t>399-C0805C334J3RECAUTO7210TR-ND</t>
   </si>
   <si>
+    <t>https://content.kemet.com/datasheets/KEM_C1090_X7R_ESD.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0805C334J3RECAUTO7210/8647991</t>
+  </si>
+  <si>
     <t>C3</t>
   </si>
   <si>
+    <t>0.047uF</t>
+  </si>
+  <si>
+    <t>0.047 µF ±5% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>KYOCERA AVX</t>
   </si>
   <si>
     <t>KGM21NR71E473JT</t>
   </si>
   <si>
-    <t>0.047uF</t>
-  </si>
-  <si>
-    <t>0.047 µF ±5% 25V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t>478-KGM21NR71E473JTCT-ND</t>
   </si>
   <si>
     <t>478-KGM21NR71E473JTTR-ND</t>
   </si>
   <si>
+    <t>https://datasheets.kyocera-avx.com/KGM_X7R.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/KGM21NR71E473JT/1602247</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
+    <t>Blue Led 0805</t>
+  </si>
+  <si>
+    <t>Blue 470nm LED Indication - Discrete 3.2V 0805 (2012 Metric)</t>
+  </si>
+  <si>
     <t>Würth Elektronik</t>
   </si>
   <si>
     <t>150080BS75000</t>
   </si>
   <si>
-    <t>Blue Led 0805</t>
-  </si>
-  <si>
-    <t>Blue 470nm LED Indication - Discrete 3.2V 0805 (2012 Metric)</t>
-  </si>
-  <si>
     <t>732-4982-1-ND</t>
   </si>
   <si>
     <t>732-4982-2-ND</t>
   </si>
   <si>
+    <t>https://www.we-online.com/components/products/datasheet/150080BS75000.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/150080BS75000/4489912</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
+    <t>1x6 0.1" Right Angle Pin Header</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 6 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
     <t>Adam Tech</t>
   </si>
   <si>
     <t>PH1RB-06-UA</t>
   </si>
   <si>
-    <t>1x6 0.1" Right Angle Pin Header</t>
-  </si>
-  <si>
-    <t>Connector Header Through Hole, Right Angle 6 position 0.100" (2.54mm)</t>
-  </si>
-  <si>
-    <t>Header 6</t>
-  </si>
-  <si>
     <t>2057-PH1RB-06-UA-ND</t>
   </si>
   <si>
+    <t>https://app.adam-tech.com/products/download/data_sheet/201281/ph1rb-xx-ua-data-sheet.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adam-tech/PH1RB-06-UA/9830592</t>
+  </si>
+  <si>
     <t>J2</t>
   </si>
   <si>
+    <t>MPT 0,5/ 6-2,54</t>
+  </si>
+  <si>
+    <t>6 Position Wire to Board Terminal Block Horizontal with Board 0.100" (2.54mm) Through Hole</t>
+  </si>
+  <si>
     <t>Phoenix Contact</t>
   </si>
   <si>
     <t>1725698</t>
   </si>
   <si>
-    <t>MPT 0,5/ 6-2,54</t>
-  </si>
-  <si>
-    <t>6 Position Wire to Board Terminal Block Horizontal with Board 0.100" (2.54mm) Through Hole</t>
-  </si>
-  <si>
     <t>277-1277-ND</t>
   </si>
   <si>
+    <t>https://www.phoenixcontact.com/en-us/products/printed-circuit-board-terminal-mpt-05-6-254-1725698?type=pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/phoenix-contact/1725698/267466</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
+    <t>180R</t>
+  </si>
+  <si>
+    <t>180 Ohms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Anti-Sulfur Thin Film</t>
+  </si>
+  <si>
     <t>Stackpole Electronics Inc</t>
   </si>
   <si>
     <t>RNCP0805FTD180R</t>
   </si>
   <si>
-    <t>180R</t>
-  </si>
-  <si>
-    <t>180 Ohms ±1% 0.25W, 1/4W Chip Resistor 0805 (2012 Metric) Anti-Sulfur Thin Film</t>
-  </si>
-  <si>
     <t>RNCP0805FTD180RCT-ND</t>
   </si>
   <si>
     <t>RNCP0805FTD180RTR-ND</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rncp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/RNCP0805FTD180R/2240212</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
+    <t>2/2 RS232 400kbps</t>
+  </si>
+  <si>
+    <t>2/2 Transceiver Full RS232 16-SO</t>
+  </si>
+  <si>
     <t>STMicroelectronics</t>
   </si>
   <si>
     <t>ST3232CDR</t>
   </si>
   <si>
-    <t>2/2 RS232 400kbps</t>
-  </si>
-  <si>
-    <t>2/2 Transceiver Full RS232 16-SO</t>
-  </si>
-  <si>
     <t>497-3731-1-ND</t>
   </si>
   <si>
     <t>497-3731-2-ND</t>
+  </si>
+  <si>
+    <t>https://www.st.com/content/ccc/resource/technical/document/datasheet/group1/40/2c/7f/62/3a/3f/47/3c/CD00002253/files/CD00002253.pdf/jcr:content/translations/en.CD00002253.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/stmicroelectronics/ST3232CDR/686410?s=N4IgTCBcDaIMoBUDMYUGEAiAlEBdAvkA</t>
   </si>
 </sst>
 </file>
@@ -601,8 +649,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B0A360-0D56-4FF0-A6C5-8BED87BB20F8}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246C0B57-8E5F-4A74-824C-FEB4D78A3549}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +658,16 @@
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="53.140625" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="10" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -650,261 +698,288 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials-DONGLE02.xlsx
+++ b/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials-DONGLE02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\#DONGLE02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D90A22-644E-4E4C-83C8-99433019C727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4715A44C-7B65-4F20-B694-8974DAFDE2F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{C2AF3CD2-5F5F-44F9-AB49-5F798C63AB68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{E2EC8976-5639-448F-A252-F0B349010BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DONGLE02" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246C0B57-8E5F-4A74-824C-FEB4D78A3549}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5E19C1-9246-4492-8004-50087C6B46CC}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials-DONGLE02.xlsx
+++ b/Project Outputs for DONGLE02/Generate Files/BOM/Bill of Materials-DONGLE02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\#DONGLE02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BENADUCE\Documents\GitHub\Dongle02\Project Outputs for DONGLE02\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4715A44C-7B65-4F20-B694-8974DAFDE2F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{771E9A48-0E83-47C9-8F69-5D546DCD1F09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10335" xr2:uid="{E2EC8976-5639-448F-A252-F0B349010BF5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{CCCD50E4-D17F-4FF3-9A73-EB817DE7A332}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DONGLE02" sheetId="1" r:id="rId1"/>
@@ -649,7 +649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB5E19C1-9246-4492-8004-50087C6B46CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1270E00-B6E1-4054-A012-23B4088EE384}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
